--- a/Xamarin.xlsx
+++ b/Xamarin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stuar\source\repos\PokedexXamarin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6B153-16C3-4954-8112-20DC807AC8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CC183-55C9-4EDF-A616-FF971A244199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="12360" tabRatio="989" firstSheet="8" activeTab="13" xr2:uid="{5D3ADD7C-01FD-4B5F-B439-CCD7C4FBFA24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" firstSheet="8" activeTab="13" xr2:uid="{5D3ADD7C-01FD-4B5F-B439-CCD7C4FBFA24}"/>
   </bookViews>
   <sheets>
     <sheet name="FilesToEditOrCreate" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Definition</t>
   </si>
@@ -518,9 +518,6 @@
     <t>PokemonPage.xaml.cs is a partial class that defines PokemonPage in tandem with PokemonPage.xaml.</t>
   </si>
   <si>
-    <t>Xaml.cs intro</t>
-  </si>
-  <si>
     <t>Xaml.cs files are referred to as 'code-behind' files where the 'business logic' is coded. Xaml.cs are data bound to an individual xaml view.</t>
   </si>
   <si>
@@ -531,20 +528,31 @@
   </si>
   <si>
     <t>InitializeComponent()</t>
+  </si>
+  <si>
+    <t>xaml.cs intro</t>
+  </si>
+  <si>
+    <t>[XamlCompilation(XamlCompilationOptions.Compile)]</t>
+  </si>
+  <si>
+    <t>x:Name=""</t>
+  </si>
+  <si>
+    <t>Similar to how we use id's with HTML to target elements with CSS - we can name our Stack Layout elements so we can target them using C#</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,9 +606,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -618,16 +626,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1217,11 +1226,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,30 +1291,62 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1323,7 +1364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,10 +1409,10 @@
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1384,17 +1425,17 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
     <col min="3" max="3" width="48.109375" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
@@ -1435,12 +1476,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1581,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1543,7 +1589,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>108</v>
       </c>
@@ -2236,7 +2282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2247,7 +2293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2255,7 +2301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>

--- a/Xamarin.xlsx
+++ b/Xamarin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stuar\source\repos\PokedexXamarin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CC183-55C9-4EDF-A616-FF971A244199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B3A41-5B16-45D1-95BE-75659904C3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" firstSheet="8" activeTab="13" xr2:uid="{5D3ADD7C-01FD-4B5F-B439-CCD7C4FBFA24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="989" firstSheet="2" activeTab="8" xr2:uid="{5D3ADD7C-01FD-4B5F-B439-CCD7C4FBFA24}"/>
   </bookViews>
   <sheets>
     <sheet name="FilesToEditOrCreate" sheetId="6" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,7 +1427,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -2392,9 +2392,9 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
